--- a/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.75.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.75.xlsx
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.25871331066877</v>
+        <v>87.55196844263358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4093116135957341</v>
+        <v>0.3896926815034628</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8725871331066877</v>
+        <v>0.875519684426336</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8552844951571454</v>
+        <v>0.8607996635693758</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.17733717419701</v>
+        <v>90.79697921262294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3175998555418725</v>
+        <v>0.2896026544020667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.90177337174197</v>
+        <v>0.9079697921262294</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8923623749715791</v>
+        <v>0.8989057925501752</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.75047362001401</v>
+        <v>86.07686917706901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5495021395967342</v>
+        <v>0.4253379392136898</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8475047362001401</v>
+        <v>0.86076869177069</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8298288689594818</v>
+        <v>0.8488603054866075</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.32116194776771</v>
+        <v>87.9646017699115</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3542284909014901</v>
+        <v>0.3231716613362853</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8632116194776771</v>
+        <v>0.879646017699115</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8584860110294432</v>
+        <v>0.8747959834136523</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.27433628318585</v>
+        <v>92.68436578171091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2122350827092305</v>
+        <v>0.2200740689023709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9327433628318584</v>
+        <v>0.9268436578171091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9322381813384389</v>
+        <v>0.9250402942027278</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.81328558205522</v>
+        <v>87.75897715378161</v>
       </c>
       <c r="C7" t="n">
-        <v>0.346160548455858</v>
+        <v>0.3183534828984799</v>
       </c>
       <c r="D7" t="n">
-        <v>0.858132855820552</v>
+        <v>0.877589771537816</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8545000129969175</v>
+        <v>0.8728208312603629</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.29272744573915</v>
+        <v>88.14211195598577</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2718781998727839</v>
+        <v>0.2864004373870557</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8929272744573915</v>
+        <v>0.8814211195598578</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8895619629903806</v>
+        <v>0.8695147202510141</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.83203141895692</v>
+        <v>89.29341949324821</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1680172513204525</v>
+        <v>0.270993736590511</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9283203141895691</v>
+        <v>0.8929341949324823</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9251265905227839</v>
+        <v>0.8833952271966853</v>
       </c>
     </row>
     <row r="10">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96.04737065199527</v>
+        <v>91.59292035398229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.108673364782832</v>
+        <v>0.1948140803404385</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9604737065199526</v>
+        <v>0.9159292035398231</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9602124227124064</v>
+        <v>0.9108983474934942</v>
       </c>
     </row>
     <row r="11">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.85597626277044</v>
+        <v>91.20995856365539</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2330362110282294</v>
+        <v>0.2432500195670097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9085597626277044</v>
+        <v>0.9120995856365539</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9087822427456663</v>
+        <v>0.912123692672389</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88.58458983209198</v>
+        <v>83.06801961954689</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3015519175950127</v>
+        <v>0.5436596509806501</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8858458983209196</v>
+        <v>0.8306801961954688</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8871425291401355</v>
+        <v>0.8180212754193773</v>
       </c>
     </row>
     <row r="13">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.00364190001643</v>
+        <v>86.75879549131048</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2523813293005029</v>
+        <v>0.4613718101366733</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9100364190001644</v>
+        <v>0.8675879549131048</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9056805828901003</v>
+        <v>0.8565631486368896</v>
       </c>
     </row>
     <row r="14">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.58753968459935</v>
+        <v>88.64306784660766</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2518421627678132</v>
+        <v>0.2706209133772063</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8958753968459934</v>
+        <v>0.8864306784660767</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8865133235986787</v>
+        <v>0.8818893331023393</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.37167276533535</v>
+        <v>83.1601484441907</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3592926191709315</v>
+        <v>0.4370917771632473</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8537167276533534</v>
+        <v>0.8316014844419068</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8456767995840515</v>
+        <v>0.8194379473187551</v>
       </c>
     </row>
     <row r="16">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.10982793968806</v>
+        <v>85.66561994480921</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3331925356760621</v>
+        <v>0.373771912092343</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8610982793968806</v>
+        <v>0.8566561994480921</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8557007388349838</v>
+        <v>0.8528173964990369</v>
       </c>
     </row>
     <row r="17">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.48134499433385</v>
+        <v>91.32795266395037</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1689335035334807</v>
+        <v>0.2290588789638908</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9348134499433385</v>
+        <v>0.9132795266395037</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9341228375463239</v>
+        <v>0.9117233973940069</v>
       </c>
     </row>
     <row r="18">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>90.21237207934325</v>
+        <v>89.89619287364079</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2998198547696423</v>
+        <v>0.2656737639277708</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9021237207934325</v>
+        <v>0.8989619287364079</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9003654171560788</v>
+        <v>0.8963268706688015</v>
       </c>
     </row>
     <row r="19">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.01474926253687</v>
+        <v>95.13378143409545</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1510970722462541</v>
+        <v>0.1408431592358587</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9501474926253687</v>
+        <v>0.9513378143409545</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9474464663115766</v>
+        <v>0.9510298215906969</v>
       </c>
     </row>
     <row r="20">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>88.52559278194448</v>
+        <v>86.40187198851201</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2876428629970178</v>
+        <v>0.3835753567322778</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8852559278194448</v>
+        <v>0.8640187198851201</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8789994373220884</v>
+        <v>0.8518954670390599</v>
       </c>
     </row>
     <row r="21">
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>82.07856469346621</v>
+        <v>83.08549381915068</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5083723848219961</v>
+        <v>0.4665586769580841</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8207856469346619</v>
+        <v>0.8308549381915068</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8119635554488982</v>
+        <v>0.8273673226826863</v>
       </c>
     </row>
     <row r="22">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.12057197726624</v>
+        <v>84.14778674556008</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3729936124291271</v>
+        <v>0.4841216436276833</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8812057197726624</v>
+        <v>0.8414778674556007</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8705500511098702</v>
+        <v>0.8330541982692358</v>
       </c>
     </row>
     <row r="23">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.29845413887662</v>
+        <v>86.81502435142173</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5603745558658072</v>
+        <v>0.3589473013552682</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8129845413887663</v>
+        <v>0.8681502435142173</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7983281980527851</v>
+        <v>0.8648953368703101</v>
       </c>
     </row>
     <row r="24">
@@ -891,16 +891,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.24049515999273</v>
+        <v>90.53131947508197</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2090767141036243</v>
+        <v>0.2586807423206361</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9124049515999273</v>
+        <v>0.9053131947508197</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9115009704540359</v>
+        <v>0.9009317183231603</v>
       </c>
     </row>
     <row r="25">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.23008849557523</v>
+        <v>83.10331404250903</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3231042268918827</v>
+        <v>0.7306756870588288</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8823008849557523</v>
+        <v>0.8310331404250902</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8777562746760517</v>
+        <v>0.8203252487078825</v>
       </c>
     </row>
     <row r="26">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>88.20076298237873</v>
+        <v>85.26907672211698</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3696842225828732</v>
+        <v>0.4007347716988686</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8820076298237873</v>
+        <v>0.8526907672211698</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8673775388908256</v>
+        <v>0.8412790421884224</v>
       </c>
     </row>
     <row r="27">
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.79193591640066</v>
+        <v>76.84746407840899</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8017411747908531</v>
+        <v>0.8312273795658257</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7779193591640066</v>
+        <v>0.7684746407840899</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7695982179923162</v>
+        <v>0.7587151846920808</v>
       </c>
     </row>
     <row r="28">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.26895561380289</v>
+        <v>81.74075900310557</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6210481451358646</v>
+        <v>0.627134676494946</v>
       </c>
       <c r="D28" t="n">
-        <v>0.812689556138029</v>
+        <v>0.8174075900310556</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8006575737767063</v>
+        <v>0.8060164800632853</v>
       </c>
     </row>
     <row r="29">
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>96.6765283436708</v>
+        <v>98.46607669616519</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09991091208388146</v>
+        <v>0.04638924184631227</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9667652834367079</v>
+        <v>0.9846607669616519</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9665654657345663</v>
+        <v>0.9847217862256287</v>
       </c>
     </row>
     <row r="30">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.73225546933797</v>
+        <v>97.40412979351032</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03378244473321199</v>
+        <v>0.06728923639978651</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9873225546933797</v>
+        <v>0.9740412979351033</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9873371446680762</v>
+        <v>0.974130653967709</v>
       </c>
     </row>
     <row r="31">
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.86725663716814</v>
+        <v>95.28023598820059</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1567064236601103</v>
+        <v>0.1485976289069489</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9486725663716815</v>
+        <v>0.9528023598820059</v>
       </c>
       <c r="E31" t="n">
-        <v>0.944227418044623</v>
+        <v>0.9502908184521484</v>
       </c>
     </row>
     <row r="32">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.10068714550587</v>
+        <v>88.19394343088319</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3144397144320389</v>
+        <v>0.3495904990328158</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8910068714550585</v>
+        <v>0.8819394343088319</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8851297901552339</v>
+        <v>0.8752862435402666</v>
       </c>
     </row>
     <row r="33">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.821355214326899</v>
+        <v>4.738300568518703</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1638591413174168</v>
+        <v>0.1746200325758753</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04821355214326898</v>
+        <v>0.04738300568518707</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05173912842844242</v>
+        <v>0.05059836412850472</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.78326802134967</v>
+        <v>88.34946669088833</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4217435883901392</v>
+        <v>0.3743121236407508</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8578326802134967</v>
+        <v>0.8834946669088832</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8464860469599274</v>
+        <v>0.8738034922087797</v>
       </c>
     </row>
     <row r="3">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.32360141523716</v>
+        <v>90.47249543681173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3429657868963356</v>
+        <v>0.2720458780725797</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8832360141523715</v>
+        <v>0.9047249543681174</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8791068948487151</v>
+        <v>0.9018631504712861</v>
       </c>
     </row>
     <row r="4">
@@ -1165,16 +1165,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.83775811209441</v>
+        <v>86.01769911504425</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5087668264541814</v>
+        <v>0.4109661298183103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8483775811209441</v>
+        <v>0.8601769911504424</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8295057113564418</v>
+        <v>0.8490278167474463</v>
       </c>
     </row>
     <row r="5">
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83.07061479770587</v>
+        <v>85.6671770517046</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3968236563378014</v>
+        <v>0.350215404961879</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8307061479770587</v>
+        <v>0.8566717705170459</v>
       </c>
       <c r="E5" t="n">
-        <v>0.826584803509067</v>
+        <v>0.8528756488136798</v>
       </c>
     </row>
     <row r="6">
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90.89135719167122</v>
+        <v>92.41887905604719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2339429548320671</v>
+        <v>0.2376022980393221</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9089135719167121</v>
+        <v>0.924188790560472</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9073177366721545</v>
+        <v>0.9234748417931178</v>
       </c>
     </row>
     <row r="7">
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.89084680663328</v>
+        <v>82.84846754729713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8794959110081738</v>
+        <v>0.4205226351895059</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7189084680663328</v>
+        <v>0.8284846754729711</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6976135256046132</v>
+        <v>0.8233718231017901</v>
       </c>
     </row>
     <row r="8">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.3062569745413</v>
+        <v>83.88939350686425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3917712700598107</v>
+        <v>0.459254098694267</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8330625697454129</v>
+        <v>0.8388939350686424</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8237545836664661</v>
+        <v>0.8348946714294012</v>
       </c>
     </row>
     <row r="9">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.35137847213211</v>
+        <v>89.84031003728407</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2639981680717028</v>
+        <v>0.3894692991220836</v>
       </c>
       <c r="D9" t="n">
-        <v>0.893513784721321</v>
+        <v>0.8984031003728405</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8885289309622714</v>
+        <v>0.8908699084706347</v>
       </c>
     </row>
     <row r="10">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.80548274639054</v>
+        <v>95.92954956357754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1642384471323264</v>
+        <v>0.1123306458433944</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9380548274639053</v>
+        <v>0.9592954956357754</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9369210209261073</v>
+        <v>0.9592437833596538</v>
       </c>
     </row>
     <row r="11">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.79090649573092</v>
+        <v>91.12128997655688</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2726906671072357</v>
+        <v>0.2343065601055666</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8879090649573094</v>
+        <v>0.9112128997655689</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8885938984011258</v>
+        <v>0.9119017859921336</v>
       </c>
     </row>
     <row r="12">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.54329189698873</v>
+        <v>85.7523854012578</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5216806806391105</v>
+        <v>0.4747547314929156</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8454329189698873</v>
+        <v>0.8575238540125779</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8326860854967792</v>
+        <v>0.8451590072362762</v>
       </c>
     </row>
     <row r="13">
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.52611181757628</v>
+        <v>86.40386162510057</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3137718895023379</v>
+        <v>0.4521239764833201</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8852611181757627</v>
+        <v>0.8640386162510056</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8806457196992987</v>
+        <v>0.8613276042227114</v>
       </c>
     </row>
     <row r="14">
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.70292995614149</v>
+        <v>87.5826780508482</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2736586656964695</v>
+        <v>0.3008124729812456</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8870292995614149</v>
+        <v>0.8758267805084818</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8858010331668951</v>
+        <v>0.8705909021175327</v>
       </c>
     </row>
     <row r="15">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.83080303462833</v>
+        <v>78.39228713051151</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4782694764435291</v>
+        <v>0.5956571829815706</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8083080303462833</v>
+        <v>0.7839228713051151</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7974467730957902</v>
+        <v>0.7751721800604713</v>
       </c>
     </row>
     <row r="16">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.13237138729573</v>
+        <v>80.88928104914402</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4323899165416757</v>
+        <v>0.4774713887677838</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8213237138729573</v>
+        <v>0.8088928104914401</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8194433732290525</v>
+        <v>0.8037874226335887</v>
       </c>
     </row>
     <row r="17">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.38643067846608</v>
+        <v>92.03574425384303</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2460115245815056</v>
+        <v>0.198108908678599</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9138643067846608</v>
+        <v>0.9203574425384303</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9103273249081274</v>
+        <v>0.9187171835713931</v>
       </c>
     </row>
     <row r="18">
@@ -1431,16 +1431,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.41053123296913</v>
+        <v>84.82088945406102</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3243584539445389</v>
+        <v>0.37440207579178</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8741053123296915</v>
+        <v>0.8482088945406101</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8622405171371735</v>
+        <v>0.8350206127785815</v>
       </c>
     </row>
     <row r="19">
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.65779980795682</v>
+        <v>94.248133634374</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2778569145710207</v>
+        <v>0.1680970067740418</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9165779980795682</v>
+        <v>0.94248133634374</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9158330121093277</v>
+        <v>0.9423649164972359</v>
       </c>
     </row>
     <row r="20">
@@ -1469,16 +1469,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>87.40499485289665</v>
+        <v>87.19902421301222</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3036226442238937</v>
+        <v>0.3325524664784704</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8740499485289664</v>
+        <v>0.8719902421301222</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8709971715355881</v>
+        <v>0.8641217438608525</v>
       </c>
     </row>
     <row r="21">
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>71.34473481604513</v>
+        <v>77.4887326014931</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7854092309872309</v>
+        <v>0.6030302681960166</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7134473481604513</v>
+        <v>0.7748873260149309</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6944487545138144</v>
+        <v>0.7660617899430456</v>
       </c>
     </row>
     <row r="22">
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.6900665230668</v>
+        <v>83.46274621752784</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5428896725177765</v>
+        <v>0.4328037472131352</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8169006652306681</v>
+        <v>0.8346274621752784</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8031112189121007</v>
+        <v>0.8310310311308131</v>
       </c>
     </row>
     <row r="23">
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>85.10341784963538</v>
+        <v>84.16327130857533</v>
       </c>
       <c r="C23" t="n">
-        <v>0.372008902214778</v>
+        <v>0.4433864347326259</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8510341784963538</v>
+        <v>0.8416327130857534</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8536989245256172</v>
+        <v>0.8359649034120593</v>
       </c>
     </row>
     <row r="24">
@@ -1545,16 +1545,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>87.37878355349095</v>
+        <v>89.26288289691088</v>
       </c>
       <c r="C24" t="n">
-        <v>0.327527449746655</v>
+        <v>0.2769105847100339</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8737878355349095</v>
+        <v>0.8926288289691087</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8667841897400368</v>
+        <v>0.8918887070475725</v>
       </c>
     </row>
     <row r="25">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.40550523793459</v>
+        <v>88.52732290071714</v>
       </c>
       <c r="C25" t="n">
-        <v>0.376372752400736</v>
+        <v>0.3362059596382702</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8640550523793458</v>
+        <v>0.8852732290071714</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8563571905411885</v>
+        <v>0.8790782461327842</v>
       </c>
     </row>
     <row r="26">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>88.93839912109966</v>
+        <v>87.1714288185884</v>
       </c>
       <c r="C26" t="n">
-        <v>0.277049177485363</v>
+        <v>0.3629035235654252</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8893839912109966</v>
+        <v>0.8717142881858839</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8845287307426883</v>
+        <v>0.8672454321473154</v>
       </c>
     </row>
     <row r="27">
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75.31371378645144</v>
+        <v>77.32238168150243</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9241909892919162</v>
+        <v>0.9463749648479279</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7531371378645144</v>
+        <v>0.7732238168150244</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7374626074815118</v>
+        <v>0.7629030827675896</v>
       </c>
     </row>
     <row r="28">
@@ -1621,16 +1621,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.41401742229604</v>
+        <v>79.94134897360703</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6732321745172765</v>
+        <v>0.6707416678157945</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8041401742229605</v>
+        <v>0.7994134897360704</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7937293086052264</v>
+        <v>0.798079816601858</v>
       </c>
     </row>
     <row r="29">
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97.905604719764</v>
+        <v>98.11209439528024</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06200061408805292</v>
+        <v>0.05768860747357394</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9790560471976402</v>
+        <v>0.9811209439528025</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9790846334556129</v>
+        <v>0.9810946590767727</v>
       </c>
     </row>
     <row r="30">
@@ -1659,16 +1659,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.34513274336283</v>
+        <v>94.13031254595629</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06798811411464764</v>
+        <v>0.13940306823575</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9734513274336283</v>
+        <v>0.9413031254595629</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9730004346568126</v>
+        <v>0.9410199356827166</v>
       </c>
     </row>
     <row r="31">
@@ -1678,16 +1678,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.95575221238938</v>
+        <v>95.16224188790559</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1390088667781735</v>
+        <v>0.1369412796367366</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9495575221238939</v>
+        <v>0.951622418879056</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9474176512742556</v>
+        <v>0.9489017925361655</v>
       </c>
     </row>
     <row r="32">
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>86.31472878946474</v>
+        <v>87.28745923407642</v>
       </c>
       <c r="C32" t="n">
-        <v>0.386524512885882</v>
+        <v>0.3680465129994225</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8631472878946475</v>
+        <v>0.8728745923407643</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8563152602577929</v>
+        <v>0.868028596394842</v>
       </c>
     </row>
     <row r="33">
@@ -1716,16 +1716,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.287542571375969</v>
+        <v>5.399082481274515</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2073385283259179</v>
+        <v>0.1809866982260648</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0628754257137597</v>
+        <v>0.05399082481274517</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06786571361103785</v>
+        <v>0.05636433991796017</v>
       </c>
     </row>
   </sheetData>
@@ -1781,16 +1781,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.96056194257736</v>
+        <v>87.23215598750855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4984916656355683</v>
+        <v>0.3683283250778914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8096056194257736</v>
+        <v>0.8723215598750855</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8024741327468279</v>
+        <v>0.8668057684109695</v>
       </c>
     </row>
     <row r="3">
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.2364985856279</v>
+        <v>86.0244465782576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2698853627506954</v>
+        <v>0.3748621194584606</v>
       </c>
       <c r="D3" t="n">
-        <v>0.892364985856279</v>
+        <v>0.8602444657825761</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8922339723967305</v>
+        <v>0.8566899097298911</v>
       </c>
     </row>
     <row r="4">
@@ -1819,16 +1819,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.80738587704046</v>
+        <v>85.54572271386431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5278987604387415</v>
+        <v>0.3969656455611888</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8380738587704046</v>
+        <v>0.855457227138643</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8184320210872519</v>
+        <v>0.8480020466562153</v>
       </c>
     </row>
     <row r="5">
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.4507651450272</v>
+        <v>81.0525177553439</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4358912044825654</v>
+        <v>0.4454061990215753</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7845076514502721</v>
+        <v>0.8105251775534391</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7707711220909149</v>
+        <v>0.8071339911744101</v>
       </c>
     </row>
     <row r="6">
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.57347381897767</v>
+        <v>88.50041955380236</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4372612643366058</v>
+        <v>0.340753044684728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8357347381897767</v>
+        <v>0.8850041955380237</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8298605479682898</v>
+        <v>0.8842501618343471</v>
       </c>
     </row>
     <row r="7">
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.3379787022379</v>
+        <v>82.54569676208271</v>
       </c>
       <c r="C7" t="n">
-        <v>0.514512235360841</v>
+        <v>0.4527575793676079</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8033797870223791</v>
+        <v>0.8254569676208272</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7969969274077376</v>
+        <v>0.823171938104865</v>
       </c>
     </row>
     <row r="8">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.34321231152519</v>
+        <v>84.78291334700127</v>
       </c>
       <c r="C8" t="n">
-        <v>0.360714637877633</v>
+        <v>0.37653781985573</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8534321231152517</v>
+        <v>0.8478291334700128</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8510734051592422</v>
+        <v>0.8366547947095192</v>
       </c>
     </row>
     <row r="9">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.651208055433</v>
+        <v>89.5903078746356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2563659177341227</v>
+        <v>0.2621025967529325</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8965120805543301</v>
+        <v>0.895903078746356</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8969266340427874</v>
+        <v>0.8925718472728856</v>
       </c>
     </row>
     <row r="10">
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.82456595645291</v>
+        <v>91.53478836322114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3021811132590907</v>
+        <v>0.2080599238653728</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8982456595645291</v>
+        <v>0.9153478836322113</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8979774041586934</v>
+        <v>0.9104311396384913</v>
       </c>
     </row>
     <row r="11">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.70587980864886</v>
+        <v>86.78604486197978</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2390297540153066</v>
+        <v>0.3230431794965019</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8970587980864886</v>
+        <v>0.8678604486197978</v>
       </c>
       <c r="E11" t="n">
-        <v>0.894032727801379</v>
+        <v>0.8691516461561302</v>
       </c>
     </row>
     <row r="12">
@@ -1971,16 +1971,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.15929203539824</v>
+        <v>83.28471699582175</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4250360018884142</v>
+        <v>0.5038571856799535</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8415929203539824</v>
+        <v>0.8328471699582176</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8387143029022065</v>
+        <v>0.8307243831450395</v>
       </c>
     </row>
     <row r="13">
@@ -1990,16 +1990,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.14037318661926</v>
+        <v>91.32847169958218</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3821983933759232</v>
+        <v>0.2359015396097675</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8714037318661927</v>
+        <v>0.9132847169958218</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8626453527739782</v>
+        <v>0.910310143844891</v>
       </c>
     </row>
     <row r="14">
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>81.53703751762558</v>
+        <v>85.16414501855552</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4684327294429143</v>
+        <v>0.410907152434811</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8153703751762558</v>
+        <v>0.8516414501855551</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7956028979712222</v>
+        <v>0.8314506471617195</v>
       </c>
     </row>
     <row r="15">
@@ -2028,16 +2028,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76.94582133063435</v>
+        <v>82.65746243479614</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5396227697531383</v>
+        <v>0.434982484660577</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7694582133063435</v>
+        <v>0.8265746243479615</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7638112881302963</v>
+        <v>0.8243124009702447</v>
       </c>
     </row>
     <row r="16">
@@ -2047,16 +2047,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.6581371811175</v>
+        <v>80.98071782627878</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5433066826313734</v>
+        <v>0.4936264456560214</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8065813718111748</v>
+        <v>0.8098071782627878</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8013425826297343</v>
+        <v>0.8055447713014479</v>
       </c>
     </row>
     <row r="17">
@@ -2066,16 +2066,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.93805309734515</v>
+        <v>91.85875310340055</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3038316400294813</v>
+        <v>0.2525382894295035</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8893805309734514</v>
+        <v>0.9185875310340055</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8854701211967303</v>
+        <v>0.9106879221584168</v>
       </c>
     </row>
     <row r="18">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>83.85245547106808</v>
+        <v>83.37857593923823</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4319941956433467</v>
+        <v>0.4122796415142148</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8385245547106809</v>
+        <v>0.8337857593923823</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8344718473044622</v>
+        <v>0.8189898314092394</v>
       </c>
     </row>
     <row r="19">
@@ -2104,16 +2104,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.08866858709851</v>
+        <v>91.06194690265487</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2689986575850829</v>
+        <v>0.2254813311311106</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9008866858709851</v>
+        <v>0.9106194690265486</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8957008640718088</v>
+        <v>0.9032202285261558</v>
       </c>
     </row>
     <row r="20">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80.03295876261905</v>
+        <v>82.6364414917084</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5700689032518615</v>
+        <v>0.4953783756665264</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8003295876261906</v>
+        <v>0.826364414917084</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7839735972423632</v>
+        <v>0.8156353159807945</v>
       </c>
     </row>
     <row r="21">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>69.8698085623578</v>
+        <v>72.02527703526847</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8829698307129246</v>
+        <v>0.8322183553129434</v>
       </c>
       <c r="D21" t="n">
-        <v>0.698698085623578</v>
+        <v>0.7202527703526848</v>
       </c>
       <c r="E21" t="n">
-        <v>0.679179924484495</v>
+        <v>0.703674891765308</v>
       </c>
     </row>
     <row r="22">
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.44919938753796</v>
+        <v>81.84344155226256</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6345239479715625</v>
+        <v>0.5468676301805924</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7744919938753796</v>
+        <v>0.8184344155226256</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7658688060755319</v>
+        <v>0.8057496094875534</v>
       </c>
     </row>
     <row r="23">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>79.38831650792827</v>
+        <v>86.20403290685906</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5109155197239791</v>
+        <v>0.4190713937122686</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7938831650792827</v>
+        <v>0.8620403290685905</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7898838538120568</v>
+        <v>0.8564483992697932</v>
       </c>
     </row>
     <row r="24">
@@ -2199,16 +2199,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86.66787774980752</v>
+        <v>86.84417685274094</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3326114598506441</v>
+        <v>0.3394693696708904</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8666787774980753</v>
+        <v>0.8684417685274095</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8639224173493897</v>
+        <v>0.8626690667655159</v>
       </c>
     </row>
     <row r="25">
@@ -2218,16 +2218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.88946271161515</v>
+        <v>84.75254976254119</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5246561985462904</v>
+        <v>0.456044069902661</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8188946271161516</v>
+        <v>0.8475254976254121</v>
       </c>
       <c r="E25" t="n">
-        <v>0.809278124175935</v>
+        <v>0.839379843653188</v>
       </c>
     </row>
     <row r="26">
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>86.34270192648725</v>
+        <v>87.55629373956522</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3741546681868689</v>
+        <v>0.3146158030955121</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8634270192648724</v>
+        <v>0.8755629373956522</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8585397685049116</v>
+        <v>0.8713682886080513</v>
       </c>
     </row>
     <row r="27">
@@ -2256,16 +2256,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>76.31943182899506</v>
+        <v>75.1667401967145</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8720092817830543</v>
+        <v>1.019259002323573</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7631943182899505</v>
+        <v>0.751667401967145</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7542030359991024</v>
+        <v>0.742043538578151</v>
       </c>
     </row>
     <row r="28">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.2368532599763</v>
+        <v>80.15060683915951</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7253016730110782</v>
+        <v>0.7345560751234492</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8023685325997629</v>
+        <v>0.8015060683915951</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7854144543045835</v>
+        <v>0.7959961315261023</v>
       </c>
     </row>
     <row r="29">
@@ -2294,16 +2294,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>96.46017699115045</v>
+        <v>97.37463126843657</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1087805359973572</v>
+        <v>0.09185961751063587</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9646017699115044</v>
+        <v>0.9737463126843657</v>
       </c>
       <c r="E29" t="n">
-        <v>0.964607613816247</v>
+        <v>0.9737759285429443</v>
       </c>
     </row>
     <row r="30">
@@ -2313,16 +2313,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95.42772861356931</v>
+        <v>94.51344734816045</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1294980133237307</v>
+        <v>0.17721654859785</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9542772861356932</v>
+        <v>0.9451344734816045</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9541782238489782</v>
+        <v>0.9413608438782999</v>
       </c>
     </row>
     <row r="31">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.24778761061947</v>
+        <v>95.78171091445428</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1792421475014028</v>
+        <v>0.1354530199548511</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9424778761061947</v>
+        <v>0.9578171091445429</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9368903787678938</v>
+        <v>0.956505262142478</v>
       </c>
     </row>
     <row r="32">
@@ -2351,16 +2351,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>84.28478908410396</v>
+        <v>85.93863845419655</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4350128388700533</v>
+        <v>0.4026799921436567</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8428478908410395</v>
+        <v>0.8593863845419655</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8358159450073928</v>
+        <v>0.8531570230801021</v>
       </c>
     </row>
     <row r="33">
@@ -2370,16 +2370,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.994142910529702</v>
+        <v>5.499336450617879</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1860385339062071</v>
+        <v>0.1927179103049202</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05994142910529701</v>
+        <v>0.05499336450617877</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06393015511372963</v>
+        <v>0.05748651389442828</v>
       </c>
     </row>
   </sheetData>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.0122924938797</v>
+        <v>80.27777056894956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4957417212737104</v>
+        <v>0.5097228321557243</v>
       </c>
       <c r="D2" t="n">
-        <v>0.810122924938797</v>
+        <v>0.8027777056894955</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8047284656751843</v>
+        <v>0.8012146682715336</v>
       </c>
     </row>
     <row r="3">
@@ -2454,16 +2454,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.19911071895085</v>
+        <v>77.6075917611744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.563625488926967</v>
+        <v>0.5819193067029118</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7719911071895085</v>
+        <v>0.7760759176117441</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7693536914922594</v>
+        <v>0.7753393247083078</v>
       </c>
     </row>
     <row r="4">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.06329639529754</v>
+        <v>79.79524044325643</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5731873815258344</v>
+        <v>0.5541695209452883</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7706329639529754</v>
+        <v>0.7979524044325643</v>
       </c>
       <c r="E4" t="n">
-        <v>0.768681552529501</v>
+        <v>0.785153657594959</v>
       </c>
     </row>
     <row r="5">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.20603984463534</v>
+        <v>70.64611285564754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6743221876521905</v>
+        <v>0.7535078801214695</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6820603984463534</v>
+        <v>0.7064611285564754</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6735554107770116</v>
+        <v>0.691975088550929</v>
       </c>
     </row>
     <row r="6">
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.58867291239544</v>
+        <v>73.08237960535992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7516272137562433</v>
+        <v>0.6663393571972847</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7058867291239543</v>
+        <v>0.730823796053599</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6854985574394087</v>
+        <v>0.7173610759068451</v>
       </c>
     </row>
     <row r="7">
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.11248367200407</v>
+        <v>71.70632963952976</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9257366543014844</v>
+        <v>0.7214128221074739</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6311248367200408</v>
+        <v>0.7170632963952975</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6145144408628319</v>
+        <v>0.7083709932155188</v>
       </c>
     </row>
     <row r="8">
@@ -2549,16 +2549,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.16616925751953</v>
+        <v>78.16270036938036</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5136480921889113</v>
+        <v>0.5036279062915128</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7916616925751953</v>
+        <v>0.7816270036938036</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7902905611662754</v>
+        <v>0.7694349480101036</v>
       </c>
     </row>
     <row r="9">
@@ -2568,16 +2568,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.02216282147769</v>
+        <v>85.07893666900233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4563586515296872</v>
+        <v>0.3680427677153299</v>
       </c>
       <c r="D9" t="n">
-        <v>0.820221628214777</v>
+        <v>0.8507893666900233</v>
       </c>
       <c r="E9" t="n">
-        <v>0.817410249244215</v>
+        <v>0.8514753929800806</v>
       </c>
     </row>
     <row r="10">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.12942153478836</v>
+        <v>85.19969895933356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4538307135459035</v>
+        <v>0.4118730481743114</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8112942153478837</v>
+        <v>0.8519969895933356</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8057952300364635</v>
+        <v>0.849743940648594</v>
       </c>
     </row>
     <row r="11">
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.28524468204742</v>
+        <v>84.75116566752308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3840325461390118</v>
+        <v>0.4277517328349252</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8428524468204742</v>
+        <v>0.8475116566752308</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8430088296294038</v>
+        <v>0.8443133600967233</v>
       </c>
     </row>
     <row r="12">
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.61651052344743</v>
+        <v>78.29375686640887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6194655439816416</v>
+        <v>0.6058312220498919</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7861651052344744</v>
+        <v>0.7829375686640888</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7896975909057493</v>
+        <v>0.7845482160773484</v>
       </c>
     </row>
     <row r="13">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.36054810162719</v>
+        <v>82.31057362087907</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5791214649565518</v>
+        <v>0.4860285701230168</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7936054810162718</v>
+        <v>0.8231057362087908</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7913513582510273</v>
+        <v>0.8160010147667375</v>
       </c>
     </row>
     <row r="14">
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75.67703872870872</v>
+        <v>74.17071081929774</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5927957172195117</v>
+        <v>0.6350161104152601</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7567703872870872</v>
+        <v>0.7417071081929775</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7389806658926259</v>
+        <v>0.7187993574419814</v>
       </c>
     </row>
     <row r="15">
@@ -2682,16 +2682,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>67.9966089672056</v>
+        <v>71.17310703379788</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8354353780547777</v>
+        <v>0.7646012761940558</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6799660896720561</v>
+        <v>0.7117310703379787</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6648186778156747</v>
+        <v>0.6909937607413174</v>
       </c>
     </row>
     <row r="16">
@@ -2701,16 +2701,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.66327563387226</v>
+        <v>69.94160849142294</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9471022004882494</v>
+        <v>0.8104679993043344</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6466327563387226</v>
+        <v>0.6994160849142294</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6327644906279843</v>
+        <v>0.6900850145135913</v>
       </c>
     </row>
     <row r="17">
@@ -2720,16 +2720,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.23111791624494</v>
+        <v>87.90733483853667</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3289614381385036</v>
+        <v>0.3400454567124446</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8723111791624495</v>
+        <v>0.8790733483853665</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8704737154703743</v>
+        <v>0.8772449162076578</v>
       </c>
     </row>
     <row r="18">
@@ -2739,16 +2739,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>71.97320046021159</v>
+        <v>75.89529321187899</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8536339645584425</v>
+        <v>0.6345046987524257</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7197320046021158</v>
+        <v>0.7589529321187899</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7025121262325634</v>
+        <v>0.7483460020620233</v>
       </c>
     </row>
     <row r="19">
@@ -2758,16 +2758,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.84172873467763</v>
+        <v>85.49001288938487</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4236297553017114</v>
+        <v>0.4043466056813486</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8384172873467763</v>
+        <v>0.8549001288938486</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8358762062379942</v>
+        <v>0.8552176569360179</v>
       </c>
     </row>
     <row r="20">
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.71850102509538</v>
+        <v>75.41622332373117</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8172774999092022</v>
+        <v>0.6557973260680835</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6871850102509537</v>
+        <v>0.7541622332373118</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6744238093018453</v>
+        <v>0.7492351415636935</v>
       </c>
     </row>
     <row r="21">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>64.39986505073573</v>
+        <v>63.48073945276343</v>
       </c>
       <c r="C21" t="n">
-        <v>1.06424444107106</v>
+        <v>1.020684587404442</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6439986505073574</v>
+        <v>0.6348073945276343</v>
       </c>
       <c r="E21" t="n">
-        <v>0.617833547130399</v>
+        <v>0.6037431170599178</v>
       </c>
     </row>
     <row r="22">
@@ -2815,16 +2815,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.6731805638457</v>
+        <v>73.91145252121558</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9663641909603029</v>
+        <v>0.8453207242613037</v>
       </c>
       <c r="D22" t="n">
-        <v>0.696731805638457</v>
+        <v>0.7391145252121558</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6818789112647838</v>
+        <v>0.7207372529184264</v>
       </c>
     </row>
     <row r="23">
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>72.07242277182328</v>
+        <v>70.74049083469581</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8487963795041045</v>
+        <v>0.8730459033201139</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7207242277182329</v>
+        <v>0.707404908346958</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7019421500164942</v>
+        <v>0.6886382210005597</v>
       </c>
     </row>
     <row r="24">
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>79.92413429181913</v>
+        <v>76.93673820707792</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4831982670507083</v>
+        <v>0.6399082640612809</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7992413429181913</v>
+        <v>0.7693673820707791</v>
       </c>
       <c r="E24" t="n">
-        <v>0.796460475293554</v>
+        <v>0.7685248305754228</v>
       </c>
     </row>
     <row r="25">
@@ -2872,16 +2872,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.86652133668977</v>
+        <v>76.67843147432072</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8076871208846569</v>
+        <v>0.6045521835175653</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6986652133668977</v>
+        <v>0.7667843147432072</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6801837507408864</v>
+        <v>0.7591253049962976</v>
       </c>
     </row>
     <row r="26">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.2411612557202</v>
+        <v>81.89828631735568</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5403675312176347</v>
+        <v>0.4412121858098544</v>
       </c>
       <c r="D26" t="n">
-        <v>0.782411612557202</v>
+        <v>0.818982863173557</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7736435058743784</v>
+        <v>0.8124611921560699</v>
       </c>
     </row>
     <row r="27">
@@ -2910,16 +2910,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>68.09747489165132</v>
+        <v>72.25313367762696</v>
       </c>
       <c r="C27" t="n">
-        <v>1.001221868085364</v>
+        <v>0.9846329727520546</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6809747489165131</v>
+        <v>0.7225313367762697</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6809089298037734</v>
+        <v>0.7172987107692967</v>
       </c>
     </row>
     <row r="28">
@@ -2929,16 +2929,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.2314120364363</v>
+        <v>74.60903641034957</v>
       </c>
       <c r="C28" t="n">
-        <v>0.829980231076479</v>
+        <v>0.7484043210744857</v>
       </c>
       <c r="D28" t="n">
-        <v>0.712314120364363</v>
+        <v>0.7460903641034957</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6996764335600131</v>
+        <v>0.7352807711245404</v>
       </c>
     </row>
     <row r="29">
@@ -2948,16 +2948,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>87.55231446638811</v>
+        <v>91.03279440133565</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3187965827683608</v>
+        <v>0.2548697671930616</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8755231446638811</v>
+        <v>0.9103279440133566</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8647795792584757</v>
+        <v>0.910704257338477</v>
       </c>
     </row>
     <row r="30">
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>87.76468654573137</v>
+        <v>86.74140779764531</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2869649851687427</v>
+        <v>0.3444040730716855</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8776468654573136</v>
+        <v>0.8674140779764532</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8782135133897484</v>
+        <v>0.8676545438383119</v>
       </c>
     </row>
     <row r="31">
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.77545653509114</v>
+        <v>93.40063495358956</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2066389930175016</v>
+        <v>0.1977475698416432</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9277545653509114</v>
+        <v>0.9340063495358957</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9254938153532247</v>
+        <v>0.9309013266009188</v>
       </c>
     </row>
     <row r="32">
@@ -3005,16 +3005,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>76.11540180566729</v>
+        <v>78.28632312274905</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6381264734751151</v>
+        <v>0.5929929663951528</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7611540180566732</v>
+        <v>0.7828632312274902</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7524916747091375</v>
+        <v>0.77466410195574</v>
       </c>
     </row>
     <row r="33">
@@ -3024,16 +3024,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.700365739251046</v>
+        <v>6.850879430135495</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2317002593610006</v>
+        <v>0.2025274315965036</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07700365739251046</v>
+        <v>0.06850879430135497</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08242454124276666</v>
+        <v>0.07456889622869697</v>
       </c>
     </row>
   </sheetData>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.47416500142735</v>
+        <v>72.64336196679902</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5996150764326255</v>
+        <v>0.655510742093126</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7347416500142735</v>
+        <v>0.7264336196679901</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7276971785217714</v>
+        <v>0.7162294500527517</v>
       </c>
     </row>
     <row r="3">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.70943520272667</v>
+        <v>70.12673120009688</v>
       </c>
       <c r="C3" t="n">
-        <v>0.689672426879406</v>
+        <v>0.8060930530230204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7070943520272667</v>
+        <v>0.7012673120009689</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7079453793966005</v>
+        <v>0.6991523649467158</v>
       </c>
     </row>
     <row r="4">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.5921677523162</v>
+        <v>74.96907412693881</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6510362146422267</v>
+        <v>0.6715593519931038</v>
       </c>
       <c r="D4" t="n">
-        <v>0.745921677523162</v>
+        <v>0.7496907412693881</v>
       </c>
       <c r="E4" t="n">
-        <v>0.724912564562487</v>
+        <v>0.7342664881933308</v>
       </c>
     </row>
     <row r="5">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.38073858770404</v>
+        <v>65.27262346560092</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7757575993736585</v>
+        <v>0.7911351054906846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6338073858770404</v>
+        <v>0.6527262346560091</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6139937018100581</v>
+        <v>0.6264076254415707</v>
       </c>
     </row>
     <row r="6">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.2339812628137</v>
+        <v>67.81857974549953</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7767301296194395</v>
+        <v>0.7813810606797535</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6823398126281369</v>
+        <v>0.6781857974549952</v>
       </c>
       <c r="E6" t="n">
-        <v>0.671410430916688</v>
+        <v>0.6727271989984543</v>
       </c>
     </row>
     <row r="7">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.49004749176031</v>
+        <v>64.2875803423905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9341101805369059</v>
+        <v>0.8298119763533274</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5949004749176031</v>
+        <v>0.642875803423905</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5815832646698729</v>
+        <v>0.6385451595702802</v>
       </c>
     </row>
     <row r="8">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.71795603768199</v>
+        <v>75.7386309570152</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5695880733896047</v>
+        <v>0.5916777645082523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7571795603768199</v>
+        <v>0.757386309570152</v>
       </c>
       <c r="E8" t="n">
-        <v>0.753660092546719</v>
+        <v>0.7512849749695503</v>
       </c>
     </row>
     <row r="9">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.33686277562956</v>
+        <v>76.12678310366007</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6559609197080135</v>
+        <v>0.5554217327657777</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7133686277562955</v>
+        <v>0.7612678310366008</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6968689393130753</v>
+        <v>0.7580104442861868</v>
       </c>
     </row>
     <row r="10">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.24358342200192</v>
+        <v>78.68536925059905</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5529564038539927</v>
+        <v>0.4620323084915678</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7824358342200192</v>
+        <v>0.7868536925059905</v>
       </c>
       <c r="E10" t="n">
-        <v>0.776853471967999</v>
+        <v>0.78615279699395</v>
       </c>
     </row>
     <row r="11">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76.51718440470938</v>
+        <v>77.53129352330038</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6239403875234226</v>
+        <v>0.543690981141602</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7651718440470938</v>
+        <v>0.7753129352330037</v>
       </c>
       <c r="E11" t="n">
-        <v>0.751546435261115</v>
+        <v>0.7723027911186706</v>
       </c>
     </row>
     <row r="12">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71.93038002058842</v>
+        <v>70.36488204915267</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6944916151463986</v>
+        <v>0.8354577188690504</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7193038002058841</v>
+        <v>0.7036488204915268</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7183578813104672</v>
+        <v>0.7053401229212517</v>
       </c>
     </row>
     <row r="13">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.7269959082691</v>
+        <v>77.9484251593872</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8140246151636044</v>
+        <v>0.5690412882715463</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7072699590826911</v>
+        <v>0.7794842515938719</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7049280240627604</v>
+        <v>0.7784386834783544</v>
       </c>
     </row>
     <row r="14">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.93238695836469</v>
+        <v>66.35861901919567</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9304293087373177</v>
+        <v>0.9670667372643947</v>
       </c>
       <c r="D14" t="n">
-        <v>0.639323869583647</v>
+        <v>0.6635861901919566</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5931539163388679</v>
+        <v>0.6249004096188583</v>
       </c>
     </row>
     <row r="15">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61.87423766641579</v>
+        <v>65.31310824488101</v>
       </c>
       <c r="C15" t="n">
-        <v>1.047983664770921</v>
+        <v>0.79848792552948</v>
       </c>
       <c r="D15" t="n">
-        <v>0.618742376664158</v>
+        <v>0.6531310824488101</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5946186587767114</v>
+        <v>0.650626098376444</v>
       </c>
     </row>
     <row r="16">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.01029420669729</v>
+        <v>57.94487841590326</v>
       </c>
       <c r="C16" t="n">
-        <v>1.014791773073375</v>
+        <v>1.052683448294798</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6001029420669729</v>
+        <v>0.5794487841590324</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5818364615933713</v>
+        <v>0.5623617624065477</v>
       </c>
     </row>
     <row r="17">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.2930475177121</v>
+        <v>80.76358792031073</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6934673349062602</v>
+        <v>0.5070317281293683</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7629304751771209</v>
+        <v>0.8076358792031073</v>
       </c>
       <c r="E17" t="n">
-        <v>0.750296308971629</v>
+        <v>0.8017762998186526</v>
       </c>
     </row>
     <row r="18">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>66.62384622704349</v>
+        <v>67.85811295945466</v>
       </c>
       <c r="C18" t="n">
-        <v>0.863354716822505</v>
+        <v>0.8342607966313759</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6662384622704349</v>
+        <v>0.6785811295945468</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6485542021500927</v>
+        <v>0.6645687188743117</v>
       </c>
     </row>
     <row r="19">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.9554667427919</v>
+        <v>77.05845206273412</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6969615442057451</v>
+        <v>0.5909111216353874</v>
       </c>
       <c r="D19" t="n">
-        <v>0.719554667427919</v>
+        <v>0.7705845206273411</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7054103559202288</v>
+        <v>0.7635923781518542</v>
       </c>
     </row>
     <row r="20">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.32197510359087</v>
+        <v>64.10712895440273</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9833446475366751</v>
+        <v>0.9623837813114127</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6032197510359086</v>
+        <v>0.6410712895440273</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5884432311891989</v>
+        <v>0.6262223097502541</v>
       </c>
     </row>
     <row r="21">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>66.02089983477364</v>
+        <v>63.77295651346465</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9209296741678068</v>
+        <v>0.943054817430675</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6602089983477366</v>
+        <v>0.6377295651346465</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6440039888472457</v>
+        <v>0.6226137352804054</v>
       </c>
     </row>
     <row r="22">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.16583188435887</v>
+        <v>72.38496872810319</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9026770133525133</v>
+        <v>0.801676394790411</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7016583188435886</v>
+        <v>0.7238496872810318</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6858873879367906</v>
+        <v>0.7115680338925805</v>
       </c>
     </row>
     <row r="23">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>61.66878606216316</v>
+        <v>64.11197328696615</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9954211430003246</v>
+        <v>1.110143694281578</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6166878606216317</v>
+        <v>0.6411197328696615</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6022537901527552</v>
+        <v>0.6106836369905662</v>
       </c>
     </row>
     <row r="24">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68.64920976825059</v>
+        <v>68.46979645152639</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7504819485048453</v>
+        <v>0.7762025038401286</v>
       </c>
       <c r="D24" t="n">
-        <v>0.686492097682506</v>
+        <v>0.684697964515264</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6790360888606186</v>
+        <v>0.6815808585779835</v>
       </c>
     </row>
     <row r="25">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.60792913433508</v>
+        <v>68.1620083218713</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8451567247509957</v>
+        <v>0.7714568088452022</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6660792913433508</v>
+        <v>0.681620083218713</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6551656635784624</v>
+        <v>0.6773245048952259</v>
       </c>
     </row>
     <row r="26">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>68.43389648699383</v>
+        <v>73.23419752766027</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8012390161554018</v>
+        <v>0.650316821783781</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6843389648699383</v>
+        <v>0.7323419752766027</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6712740212587033</v>
+        <v>0.7235917961247005</v>
       </c>
     </row>
     <row r="27">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>61.80987724807308</v>
+        <v>62.32614468983296</v>
       </c>
       <c r="C27" t="n">
-        <v>1.155162839141364</v>
+        <v>1.271401681005955</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6180987724807309</v>
+        <v>0.6232614468983295</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6070415761165724</v>
+        <v>0.6149508400515687</v>
       </c>
     </row>
     <row r="28">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.5482659884601</v>
+        <v>67.34470021366967</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8506022644539675</v>
+        <v>0.8466413702815772</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6954826598846011</v>
+        <v>0.6734470021366967</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6667469837778079</v>
+        <v>0.6561036721923821</v>
       </c>
     </row>
     <row r="29">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>83.28662012647169</v>
+        <v>85.22988953191637</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4168755861620109</v>
+        <v>0.4040009941905737</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8328662012647168</v>
+        <v>0.8522988953191636</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8330112615081064</v>
+        <v>0.8522171940433312</v>
       </c>
     </row>
     <row r="30">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.25435341136169</v>
+        <v>82.90469640740837</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3529895426986817</v>
+        <v>0.3881386480420285</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8325435341136169</v>
+        <v>0.8290469640740836</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8322661135442251</v>
+        <v>0.8256867195009461</v>
       </c>
     </row>
     <row r="31">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.42961444303151</v>
+        <v>91.63003140165571</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1790774069319014</v>
+        <v>0.2552007803586699</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9342961444303152</v>
+        <v>0.9163003140165571</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9330805036416615</v>
+        <v>0.9141556318340133</v>
       </c>
     </row>
     <row r="32">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.27466788928392</v>
+        <v>71.68295285137992</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7579609930547306</v>
+        <v>0.7341291045775871</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7027466788928394</v>
+        <v>0.7168295285137991</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6900612626167554</v>
+        <v>0.7074460900450567</v>
       </c>
     </row>
     <row r="33">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.656325056523674</v>
+        <v>7.495627144380917</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2106135394753192</v>
+        <v>0.2223533643740686</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07656325056523673</v>
+        <v>0.07495627144380916</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08207653299174582</v>
+        <v>0.08003348348955613</v>
       </c>
     </row>
   </sheetData>
@@ -3743,16 +3743,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.12449069628629</v>
+        <v>62.37017621259699</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8056222960352898</v>
+        <v>0.8290025815367699</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6112449069628629</v>
+        <v>0.6237017621259699</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5641834209066523</v>
+        <v>0.6082545843174575</v>
       </c>
     </row>
     <row r="3">
@@ -3762,16 +3762,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.76919350513413</v>
+        <v>60.89412538170745</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8817921479543049</v>
+        <v>0.9435310562451681</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5876919350513413</v>
+        <v>0.6089412538170745</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5837448325772668</v>
+        <v>0.5776822225473175</v>
       </c>
     </row>
     <row r="4">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.41425963892422</v>
+        <v>62.87978269708216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7365185573697091</v>
+        <v>0.8639737938841184</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6841425963892421</v>
+        <v>0.6287978269708215</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6803606608189866</v>
+        <v>0.6050345965727285</v>
       </c>
     </row>
     <row r="5">
@@ -3800,16 +3800,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.68626891236083</v>
+        <v>53.57122466457322</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9797237915297348</v>
+        <v>0.9794690276185671</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5268626891236083</v>
+        <v>0.5357122466457322</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4955499787397843</v>
+        <v>0.5048437183686071</v>
       </c>
     </row>
     <row r="6">
@@ -3819,16 +3819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.56203773389043</v>
+        <v>57.61148452841287</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8725775261720022</v>
+        <v>0.9615315606196722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6156203773389043</v>
+        <v>0.5761148452841287</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6000005937273022</v>
+        <v>0.5679444163993469</v>
       </c>
     </row>
     <row r="7">
@@ -3838,16 +3838,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.05752644919074</v>
+        <v>43.49708907516501</v>
       </c>
       <c r="C7" t="n">
-        <v>1.192216390371323</v>
+        <v>1.157655068238576</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4005752644919074</v>
+        <v>0.4349708907516501</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3782543259686711</v>
+        <v>0.4197023129792908</v>
       </c>
     </row>
     <row r="8">
@@ -3857,16 +3857,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.16604814920544</v>
+        <v>72.44604192077786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9230249951127917</v>
+        <v>0.6254610645895203</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6516604814920545</v>
+        <v>0.7244604192077786</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6179334600276947</v>
+        <v>0.7164287134806158</v>
       </c>
     </row>
     <row r="9">
@@ -3876,16 +3876,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.01241360219379</v>
+        <v>65.75402901409181</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7218867429842553</v>
+        <v>0.6357817268930376</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6501241360219379</v>
+        <v>0.6575402901409182</v>
       </c>
       <c r="E9" t="n">
-        <v>0.620075256335741</v>
+        <v>0.6519405358457533</v>
       </c>
     </row>
     <row r="10">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65.96449796278515</v>
+        <v>72.76568136402564</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8452812943607568</v>
+        <v>0.6601110221197207</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6596449796278515</v>
+        <v>0.7276568136402564</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6464203367652887</v>
+        <v>0.7249463756503607</v>
       </c>
     </row>
     <row r="11">
@@ -3914,16 +3914,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63.08679140823018</v>
+        <v>65.17893753406172</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8377286111315092</v>
+        <v>0.7597420399387678</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6308679140823018</v>
+        <v>0.6517893753406171</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6092258380563615</v>
+        <v>0.6415420177709057</v>
       </c>
     </row>
     <row r="12">
@@ -3933,16 +3933,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.45105061462469</v>
+        <v>62.86646078253273</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8847493693232537</v>
+        <v>0.8470421930154165</v>
       </c>
       <c r="D12" t="n">
-        <v>0.614510506146247</v>
+        <v>0.6286646078253273</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6037139696617306</v>
+        <v>0.6209961117828682</v>
       </c>
     </row>
     <row r="13">
@@ -3952,16 +3952,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.12496647894879</v>
+        <v>63.90548361144992</v>
       </c>
       <c r="C13" t="n">
-        <v>1.023844916621844</v>
+        <v>0.8651010108490785</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5612496647894878</v>
+        <v>0.6390548361144993</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5379678823386239</v>
+        <v>0.6269656161846953</v>
       </c>
     </row>
     <row r="14">
@@ -3971,16 +3971,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60.27387780171109</v>
+        <v>59.8303618543413</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8919894576072693</v>
+        <v>1.066073711713155</v>
       </c>
       <c r="D14" t="n">
-        <v>0.602738778017111</v>
+        <v>0.5983036185434131</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5754291175438337</v>
+        <v>0.5490427511336292</v>
       </c>
     </row>
     <row r="15">
@@ -3990,16 +3990,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48.95050995250824</v>
+        <v>51.20026989852854</v>
       </c>
       <c r="C15" t="n">
-        <v>1.12334973414739</v>
+        <v>1.096101609865824</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4895050995250824</v>
+        <v>0.5120026989852853</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4659627551939117</v>
+        <v>0.4804405340503995</v>
       </c>
     </row>
     <row r="16">
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.52262562824937</v>
+        <v>57.9021444822187</v>
       </c>
       <c r="C16" t="n">
-        <v>1.062992556889852</v>
+        <v>0.9839573254187902</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5552262562824938</v>
+        <v>0.579021444822187</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5418012335541891</v>
+        <v>0.5678302857397819</v>
       </c>
     </row>
     <row r="17">
@@ -4028,16 +4028,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>65.58845664754885</v>
+        <v>65.99330444034983</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7995991997420788</v>
+        <v>0.8370897049705187</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6558845664754885</v>
+        <v>0.6599330444034983</v>
       </c>
       <c r="E17" t="n">
-        <v>0.649541607550491</v>
+        <v>0.6556501548278904</v>
       </c>
     </row>
     <row r="18">
@@ -4047,16 +4047,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63.35141307450757</v>
+        <v>60.91601138418152</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8828266521294911</v>
+        <v>0.8921339695652326</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6335141307450757</v>
+        <v>0.6091601138418152</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6174824030296188</v>
+        <v>0.5907100769154487</v>
       </c>
     </row>
     <row r="19">
@@ -4066,16 +4066,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.12914471578475</v>
+        <v>74.2348982257632</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7452307716012001</v>
+        <v>0.6336469220618407</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6912914471578474</v>
+        <v>0.742348982257632</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6815163087806009</v>
+        <v>0.7356947808314582</v>
       </c>
     </row>
     <row r="20">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>56.7861313679184</v>
+        <v>55.61086168565472</v>
       </c>
       <c r="C20" t="n">
-        <v>1.094557279845079</v>
+        <v>1.115063165128231</v>
       </c>
       <c r="D20" t="n">
-        <v>0.567861313679184</v>
+        <v>0.5561086168565472</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5453381659075126</v>
+        <v>0.5310851717379144</v>
       </c>
     </row>
     <row r="21">
@@ -4104,16 +4104,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.94850301473197</v>
+        <v>57.83034455315358</v>
       </c>
       <c r="C21" t="n">
-        <v>1.012918567533294</v>
+        <v>0.988680167744557</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5694850301473197</v>
+        <v>0.5783034455315358</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5271047104418344</v>
+        <v>0.5601753303859188</v>
       </c>
     </row>
     <row r="22">
@@ -4123,16 +4123,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.16020034775387</v>
+        <v>55.61189975691832</v>
       </c>
       <c r="C22" t="n">
-        <v>1.022570229073365</v>
+        <v>1.133546642959118</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5916020034775388</v>
+        <v>0.5561189975691831</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5800282284742412</v>
+        <v>0.5390215622278653</v>
       </c>
     </row>
     <row r="23">
@@ -4142,16 +4142,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>45.49087794877119</v>
+        <v>47.90508568413221</v>
       </c>
       <c r="C23" t="n">
-        <v>1.214586968968312</v>
+        <v>1.245671248435974</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4549087794877118</v>
+        <v>0.4790508568413221</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4254843145981216</v>
+        <v>0.4473871313914666</v>
       </c>
     </row>
     <row r="24">
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.58233202709366</v>
+        <v>59.30734694936807</v>
       </c>
       <c r="C24" t="n">
-        <v>1.149982969959577</v>
+        <v>0.8983414103587469</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4758233202709367</v>
+        <v>0.5930734694936808</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4416876819939871</v>
+        <v>0.5808528347122897</v>
       </c>
     </row>
     <row r="25">
@@ -4180,16 +4180,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.82436699279405</v>
+        <v>50.29308212008754</v>
       </c>
       <c r="C25" t="n">
-        <v>1.285666753351688</v>
+        <v>1.149681907892227</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4682436699279405</v>
+        <v>0.5029308212008754</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4301773902855152</v>
+        <v>0.4772582246977657</v>
       </c>
     </row>
     <row r="26">
@@ -4199,16 +4199,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>61.92432460488412</v>
+        <v>66.49512539035804</v>
       </c>
       <c r="C26" t="n">
-        <v>1.014006497679899</v>
+        <v>0.7956374414265156</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6192432460488412</v>
+        <v>0.6649512539035805</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5936624474805449</v>
+        <v>0.6541926566310163</v>
       </c>
     </row>
     <row r="27">
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.52212389380531</v>
+        <v>53.0961340496025</v>
       </c>
       <c r="C27" t="n">
-        <v>1.232800636192163</v>
+        <v>1.22996401588122</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4752212389380531</v>
+        <v>0.5309613404960251</v>
       </c>
       <c r="E27" t="n">
-        <v>0.465610938738657</v>
+        <v>0.5305847518300972</v>
       </c>
     </row>
     <row r="28">
@@ -4237,16 +4237,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.22040848104223</v>
+        <v>60.73927975155495</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8838795945048332</v>
+        <v>0.9384769807259241</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5922040848104222</v>
+        <v>0.6073927975155494</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5806605418371912</v>
+        <v>0.5898361857384141</v>
       </c>
     </row>
     <row r="29">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>76.02193790603725</v>
+        <v>71.12189551812732</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6318168632686139</v>
+        <v>0.7026021987199783</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7602193790603725</v>
+        <v>0.7112189551812732</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7541231400949615</v>
+        <v>0.7049442317502841</v>
       </c>
     </row>
     <row r="30">
@@ -4275,16 +4275,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73.78437529736416</v>
+        <v>77.37194958433896</v>
       </c>
       <c r="C30" t="n">
-        <v>0.579292707318867</v>
+        <v>0.4933662203970016</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7378437529736417</v>
+        <v>0.7737194958433896</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7300846959669398</v>
+        <v>0.7651332959578527</v>
       </c>
     </row>
     <row r="31">
@@ -4294,16 +4294,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.71968615645464</v>
+        <v>87.58518672306853</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4785792537033558</v>
+        <v>0.3940581192572911</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8571968615645463</v>
+        <v>0.8758518672306854</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8542974767359089</v>
+        <v>0.8761530396142444</v>
       </c>
     </row>
     <row r="32">
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.97402803369118</v>
+        <v>61.89285662794085</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9270537777494369</v>
+        <v>0.8907498302690187</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5997402803369118</v>
+        <v>0.6189285662794085</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5799141238044055</v>
+        <v>0.6034091407357897</v>
       </c>
     </row>
     <row r="33">
@@ -4332,16 +4332,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.550086335727686</v>
+        <v>9.147247941361508</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1935848953793688</v>
+        <v>0.2104489148353019</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09550086335727684</v>
+        <v>0.0914724794136151</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1018245516593301</v>
+        <v>0.09802914975481822</v>
       </c>
     </row>
   </sheetData>
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.50494381439286</v>
+        <v>56.23898130606666</v>
       </c>
       <c r="C2" t="n">
-        <v>1.354175128601491</v>
+        <v>1.12517459889253</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5150494381439286</v>
+        <v>0.5623898130606666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4715433560753535</v>
+        <v>0.5252270035100198</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.21738942378394</v>
+        <v>51.81411603906609</v>
       </c>
       <c r="C3" t="n">
-        <v>1.030471768975258</v>
+        <v>1.150533621758222</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5021738942378394</v>
+        <v>0.5181411603906608</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4655423722888203</v>
+        <v>0.4703351424277603</v>
       </c>
     </row>
     <row r="4">
@@ -4435,16 +4435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.39822143790171</v>
+        <v>57.19608301109871</v>
       </c>
       <c r="C4" t="n">
-        <v>1.03995282103618</v>
+        <v>0.9472934727867445</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5439822143790172</v>
+        <v>0.5719608301109871</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5238424538122997</v>
+        <v>0.5319251390825761</v>
       </c>
     </row>
     <row r="5">
@@ -4454,16 +4454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.41887040545333</v>
+        <v>52.04110762203825</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9764462540547052</v>
+        <v>0.9961367458105087</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5141887040545334</v>
+        <v>0.5204110762203825</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4676428549643097</v>
+        <v>0.5067315098462328</v>
       </c>
     </row>
     <row r="6">
@@ -4473,16 +4473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.07006981029248</v>
+        <v>50.62725456102562</v>
       </c>
       <c r="C6" t="n">
-        <v>1.020770543813705</v>
+        <v>1.180844432860613</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5007006981029247</v>
+        <v>0.5062725456102561</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4769304159867945</v>
+        <v>0.4733326253956222</v>
       </c>
     </row>
     <row r="7">
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.40976998070918</v>
+        <v>40.69922750196801</v>
       </c>
       <c r="C7" t="n">
-        <v>1.332076223691304</v>
+        <v>1.294246220588684</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3940976998070918</v>
+        <v>0.40699227501968</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3443012424417824</v>
+        <v>0.3845742679047027</v>
       </c>
     </row>
     <row r="8">
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.22304691217053</v>
+        <v>68.8715300305366</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9526216604902098</v>
+        <v>0.7115363559996088</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6422304691217052</v>
+        <v>0.688715300305366</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6285998816061682</v>
+        <v>0.666592841946142</v>
       </c>
     </row>
     <row r="9">
@@ -4530,16 +4530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.30148184672878</v>
+        <v>54.71993702367668</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7909955769777298</v>
+        <v>0.9836998668188851</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6130148184672878</v>
+        <v>0.5471993702367668</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6042709973274992</v>
+        <v>0.5344303420549396</v>
       </c>
     </row>
     <row r="10">
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65.49338662099153</v>
+        <v>61.47907853874168</v>
       </c>
       <c r="C10" t="n">
-        <v>0.739092115064462</v>
+        <v>0.8884369080265364</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6549338662099153</v>
+        <v>0.6147907853874168</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6448636457673087</v>
+        <v>0.5962973755591886</v>
       </c>
     </row>
     <row r="11">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.72979005008694</v>
+        <v>51.91723111791624</v>
       </c>
       <c r="C11" t="n">
-        <v>1.216906905174255</v>
+        <v>1.208098718523979</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4372979005008694</v>
+        <v>0.5191723111791624</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4051964248745181</v>
+        <v>0.4729173029940374</v>
       </c>
     </row>
     <row r="12">
@@ -4587,16 +4587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42.62294656528171</v>
+        <v>44.61751399233557</v>
       </c>
       <c r="C12" t="n">
-        <v>1.143152242898941</v>
+        <v>1.238283633937438</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4262294656528171</v>
+        <v>0.4461751399233558</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3861242453818874</v>
+        <v>0.3967349163633072</v>
       </c>
     </row>
     <row r="13">
@@ -4606,16 +4606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.55491829514096</v>
+        <v>45.87280166783449</v>
       </c>
       <c r="C13" t="n">
-        <v>1.122758526603381</v>
+        <v>1.42029217146337</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4855491829514096</v>
+        <v>0.458728016678345</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4602346481063772</v>
+        <v>0.4164902991515321</v>
       </c>
     </row>
     <row r="14">
@@ -4625,16 +4625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.90284518032163</v>
+        <v>48.83692765508352</v>
       </c>
       <c r="C14" t="n">
-        <v>1.434119495749474</v>
+        <v>1.383253959814707</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4890284518032163</v>
+        <v>0.4883692765508352</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4131137195568773</v>
+        <v>0.4309143164716754</v>
       </c>
     </row>
     <row r="15">
@@ -4644,16 +4644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42.86326006280331</v>
+        <v>47.09521708665299</v>
       </c>
       <c r="C15" t="n">
-        <v>1.244084149599075</v>
+        <v>1.154584507147471</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4286326006280331</v>
+        <v>0.47095217086653</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3865455019105894</v>
+        <v>0.4439699359209686</v>
       </c>
     </row>
     <row r="16">
@@ -4663,16 +4663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54.92262043789306</v>
+        <v>53.44855924359207</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9976038455963134</v>
+        <v>1.077467704812686</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5492262043789307</v>
+        <v>0.5344855924359206</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5194204639312177</v>
+        <v>0.5226394039582409</v>
       </c>
     </row>
     <row r="17">
@@ -4682,16 +4682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>52.79457434752896</v>
+        <v>59.5127985536207</v>
       </c>
       <c r="C17" t="n">
-        <v>1.034085602561633</v>
+        <v>0.9406995167334875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5279457434752896</v>
+        <v>0.595127985536207</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5147051082417006</v>
+        <v>0.587306167482917</v>
       </c>
     </row>
     <row r="18">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>44.60505713717247</v>
+        <v>54.99493940258999</v>
       </c>
       <c r="C18" t="n">
-        <v>1.314889994263649</v>
+        <v>0.9273377483089765</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4460505713717247</v>
+        <v>0.5499493940258999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3865889990644572</v>
+        <v>0.5241801328610233</v>
       </c>
     </row>
     <row r="19">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.01115061548975</v>
+        <v>62.8333290080364</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9852756177385649</v>
+        <v>0.9185583283503851</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5901115061548975</v>
+        <v>0.628333290080364</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5707974873986233</v>
+        <v>0.6162660123562805</v>
       </c>
     </row>
     <row r="20">
@@ -4739,16 +4739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.43867161480635</v>
+        <v>44.0067820655888</v>
       </c>
       <c r="C20" t="n">
-        <v>1.24890258833766</v>
+        <v>1.396087226519982</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4043867161480635</v>
+        <v>0.440067820655888</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3792326895655105</v>
+        <v>0.3952692778868584</v>
       </c>
     </row>
     <row r="21">
@@ -4758,16 +4758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>40.9855621588422</v>
+        <v>42.93696312251836</v>
       </c>
       <c r="C21" t="n">
-        <v>1.449396263435483</v>
+        <v>1.551636655628681</v>
       </c>
       <c r="D21" t="n">
-        <v>0.409855621588422</v>
+        <v>0.4293696312251836</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3459050464674471</v>
+        <v>0.3778632910689294</v>
       </c>
     </row>
     <row r="22">
@@ -4777,16 +4777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.81832022768364</v>
+        <v>60.1648803190339</v>
       </c>
       <c r="C22" t="n">
-        <v>1.084856212635835</v>
+        <v>0.8853649174173673</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5781832022768363</v>
+        <v>0.601648803190339</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5670820442913234</v>
+        <v>0.5844171815607034</v>
       </c>
     </row>
     <row r="23">
@@ -4796,16 +4796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.82992067405427</v>
+        <v>42.34059118158461</v>
       </c>
       <c r="C23" t="n">
-        <v>1.337676136692365</v>
+        <v>1.471562817692757</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3882992067405427</v>
+        <v>0.4234059118158461</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3459381758028191</v>
+        <v>0.362986584580154</v>
       </c>
     </row>
     <row r="24">
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.42162994489572</v>
+        <v>48.87369267900242</v>
       </c>
       <c r="C24" t="n">
-        <v>1.299174691239993</v>
+        <v>1.11600004285574</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4042162994489572</v>
+        <v>0.4887369267900241</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3409416401174378</v>
+        <v>0.4631660003613569</v>
       </c>
     </row>
     <row r="25">
@@ -4834,16 +4834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.82574243721832</v>
+        <v>38.9517210356491</v>
       </c>
       <c r="C25" t="n">
-        <v>1.507702457904816</v>
+        <v>1.388282643755277</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3582574243721831</v>
+        <v>0.389517210356491</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2929557621851161</v>
+        <v>0.3282253763625685</v>
       </c>
     </row>
     <row r="26">
@@ -4853,16 +4853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>61.32397339077328</v>
+        <v>63.91257709841781</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9055816983183226</v>
+        <v>0.8675257968405882</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6132397339077327</v>
+        <v>0.639125770984178</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5933102448585492</v>
+        <v>0.6239726205374608</v>
       </c>
     </row>
     <row r="27">
@@ -4872,16 +4872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>46.64149343852456</v>
+        <v>40.83114905838286</v>
       </c>
       <c r="C27" t="n">
-        <v>1.36475284943978</v>
+        <v>1.331058365106583</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4664149343852455</v>
+        <v>0.4083114905838285</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4368627835283648</v>
+        <v>0.3776371929604824</v>
       </c>
     </row>
     <row r="28">
@@ -4891,16 +4891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.79799133210495</v>
+        <v>53.27693146134482</v>
       </c>
       <c r="C28" t="n">
-        <v>1.129491819938024</v>
+        <v>1.034665215015411</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4779799133210495</v>
+        <v>0.5327693146134482</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4329395049294972</v>
+        <v>0.5209343780260588</v>
       </c>
     </row>
     <row r="29">
@@ -4910,16 +4910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>60.84559555013451</v>
+        <v>60.30406837429389</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9090264216065407</v>
+        <v>0.96430092168351</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6084559555013451</v>
+        <v>0.603040683742939</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5843171733623593</v>
+        <v>0.5788333508973642</v>
       </c>
     </row>
     <row r="30">
@@ -4929,16 +4929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>65.50169119110026</v>
+        <v>66.16536475229024</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7338278107345104</v>
+        <v>0.8537034020914385</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6550169119110028</v>
+        <v>0.6616536475229025</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6450059406690102</v>
+        <v>0.6350987425209189</v>
       </c>
     </row>
     <row r="31">
@@ -4948,16 +4948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.33527971695257</v>
+        <v>83.51785050043686</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6272741299122572</v>
+        <v>0.4323558708031972</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7833527971695257</v>
+        <v>0.8351785050043684</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7779371738425851</v>
+        <v>0.838128872597917</v>
       </c>
     </row>
     <row r="32">
@@ -4967,16 +4967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>51.36034048737444</v>
+        <v>53.60330683368079</v>
       </c>
       <c r="C32" t="n">
-        <v>1.110904718436198</v>
+        <v>1.094634079601512</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5136034048737446</v>
+        <v>0.536033068336808</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4804230666118868</v>
+        <v>0.506246586821598</v>
       </c>
     </row>
     <row r="33">
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.826993116555995</v>
+        <v>9.674133843909699</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2254326666225742</v>
+        <v>0.2443201739509083</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09826993116555997</v>
+        <v>0.09674133843909698</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1132869390309665</v>
+        <v>0.10868957426503</v>
       </c>
     </row>
   </sheetData>
